--- a/biology/Zoologie/Hirondelle_striée/Hirondelle_striée.xlsx
+++ b/biology/Zoologie/Hirondelle_striée/Hirondelle_striée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_stri%C3%A9e</t>
+          <t>Hirondelle_striée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecropis abyssinica
 L'Hirondelle striée (Cecropis abyssinica) est une espèce de passereaux de la famille des Hirundinidae, autrefois classée dans le genre Hirundo.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_stri%C3%A9e</t>
+          <t>Hirondelle_striée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille de l'Hirondelle rustique (17-19 cm), et morphologie typique du genre Hirundo sensu lato. Dessus bleu sombre, tête rousse, et dessous blanchâtre strié de raies noirâtres. Longs filets au bout de la queue chez le mâle, plus courts chez la femelle.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_stri%C3%A9e</t>
+          <t>Hirondelle_striée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau niche en Afrique subsaharienne. Elle est migratrice en Afrique du Sud et dans les pays sahéliens, sédentaire ou erratique ailleurs.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hirondelle_stri%C3%A9e</t>
+          <t>Hirondelle_striée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Savanes et plaines. Espèce anthropophile. Construit son nid dans les constructions humaines (maisons, ponts, fermes...), parfois dans des falaises, des trous de rocher ou sous une branche d'arbre.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hirondelle_stri%C3%A9e</t>
+          <t>Hirondelle_striée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit d'insectes, qu'elle chasse en petit groupe, souvent associée à d'autres espèces d'hirondelles.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hirondelle_stri%C3%A9e</t>
+          <t>Hirondelle_striée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond de 2 à 4 œufs, couvés pendant 14 jours. Les jeunes s'envolent au bout de 17 à 28 jours après l'éclosion.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hirondelle_stri%C3%A9e</t>
+          <t>Hirondelle_striée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,11 +689,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>L'espèce Cecropis abyssinica a été décrite par le naturaliste français Félix Édouard Guérin-Méneville en 1843 sous le nom initial de  Hirundo abyssinica[1].
-Taxinomie
-Liste des sous-espèces
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cecropis abyssinica a été décrite par le naturaliste français Félix Édouard Guérin-Méneville en 1843 sous le nom initial de  Hirundo abyssinica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hirondelle_striée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirondelle_stri%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 D'après Alan P. Peterson, cette espèce est constituée des six sous-espèces suivantes :
 Cecropis abyssinica abyssinica (Guerin-Meneville, 1843) ;
 Cecropis abyssinica ampliformis (Clancey, 1969) ;
